--- a/generatedInvoice.xlsx
+++ b/generatedInvoice.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>INVOICE</t>
   </si>
@@ -25,7 +25,7 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>2024-04-26</t>
+    <t>2024-04-20</t>
   </si>
   <si>
     <t>INVOICE #</t>
@@ -64,10 +64,7 @@
     <t>BILL TO</t>
   </si>
   <si>
-    <t>Barclays</t>
-  </si>
-  <si>
-    <t>hackohire</t>
+    <t>Parth</t>
   </si>
   <si>
     <t xml:space="preserve">  GST No.- </t>
@@ -94,7 +91,7 @@
     <t xml:space="preserve"> PO No.&amp; Date :  </t>
   </si>
   <si>
-    <t>Success</t>
+    <t/>
   </si>
   <si>
     <t>Yes</t>
@@ -1439,20 +1436,20 @@
     </row>
     <row r="14" ht="15" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
     </row>
     <row r="15" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="12"/>
     </row>
     <row r="16" ht="15" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="12"/>
     </row>
@@ -1462,20 +1459,20 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="F18" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,7 +1485,7 @@
     </row>
     <row r="20" ht="27" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
@@ -1498,7 +1495,7 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="32"/>
       <c r="C21" s="28"/>
@@ -1511,10 +1508,10 @@
       <c r="B22" s="33"/>
       <c r="C22" s="34"/>
       <c r="D22" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="37">
         <f>C22</f>
@@ -1579,7 +1576,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -1592,7 +1589,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="38"/>
@@ -1605,7 +1602,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32" s="47"/>
       <c r="C32" s="48">
@@ -1622,7 +1619,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="47"/>
       <c r="C33" s="48">
@@ -1639,7 +1636,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="50"/>
@@ -1652,7 +1649,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="54"/>
       <c r="C35" s="54"/>
@@ -1665,7 +1662,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36" s="51"/>
       <c r="C36" s="48">
@@ -1680,7 +1677,7 @@
     </row>
     <row r="37" ht="14.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -1693,7 +1690,7 @@
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D38" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="59"/>
       <c r="F38" s="60"/>
@@ -1705,7 +1702,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="66"/>
@@ -1721,7 +1718,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="70"/>
       <c r="C42" s="71"/>
@@ -1730,7 +1727,7 @@
     </row>
     <row r="43" ht="14.5" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="74"/>
       <c r="C43" s="75"/>
@@ -1739,52 +1736,52 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="74"/>
       <c r="C44" s="75"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="74"/>
       <c r="C45" s="75"/>
       <c r="E45" s="79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="79"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="74"/>
       <c r="C46" s="75"/>
       <c r="D46" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E46" s="81"/>
       <c r="F46" s="81"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="82" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B47" s="83"/>
       <c r="C47" s="84"/>
     </row>
     <row r="53" ht="14.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="85" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53" s="86"/>
       <c r="C53" s="86"/>
       <c r="D53" s="85" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="87" t="s">
         <v>46</v>
-      </c>
-      <c r="E53" s="87" t="s">
-        <v>47</v>
       </c>
       <c r="F53" s="86"/>
     </row>
@@ -1795,10 +1792,10 @@
       <c r="B54" s="59"/>
       <c r="C54" s="89"/>
       <c r="D54" s="90" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="59" t="s">
         <v>48</v>
-      </c>
-      <c r="E54" s="59" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1808,10 +1805,10 @@
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
       <c r="D55" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="59" t="s">
         <v>50</v>
-      </c>
-      <c r="E55" s="59" t="s">
-        <v>51</v>
       </c>
       <c r="F55" s="59"/>
     </row>

--- a/generatedInvoice.xlsx
+++ b/generatedInvoice.xlsx
@@ -91,7 +91,7 @@
     <t xml:space="preserve"> PO No.&amp; Date :  </t>
   </si>
   <si>
-    <t/>
+    <t>Invoice</t>
   </si>
   <si>
     <t>Yes</t>
